--- a/docs/build_instructions_wood_headphonesOnly.xlsx
+++ b/docs/build_instructions_wood_headphonesOnly.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="321" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E1E4C037-8CE8-47EA-93BD-87875E7BF0AC}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C0F8423-9804-4412-93B9-AA6A987F79C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Female-female jumper wires</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Ali Express</t>
   </si>
   <si>
-    <t>M2.5 4mm thread + 6mm standoff screws</t>
-  </si>
-  <si>
     <t># units to make</t>
   </si>
   <si>
@@ -110,6 +107,18 @@
   </si>
   <si>
     <t>16GB micro SD card</t>
+  </si>
+  <si>
+    <t>KY-016 indicator LED (10 pieces)</t>
+  </si>
+  <si>
+    <t>KY-040 rotary encoders (knobs) (5 pieces)</t>
+  </si>
+  <si>
+    <t>M2.5 4mm thread + 6mm standoff screws (30 pieces)</t>
+  </si>
+  <si>
+    <t>+ tax + shipping</t>
   </si>
 </sst>
 </file>
@@ -225,7 +234,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -275,6 +284,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -593,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E12D50-D309-4C94-883F-34F0FBB95462}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +692,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1</v>
@@ -761,19 +774,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35BB53-6D32-4D96-AF53-91579E0632D6}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -782,7 +795,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="12">
         <v>10</v>
@@ -821,13 +834,13 @@
       <c r="F4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>24</v>
+      <c r="G4" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>17</v>
@@ -836,19 +849,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="17">
-        <f>55/24+15</f>
-        <v>17.291666666666668</v>
+        <f>55/10+15+1</f>
+        <v>21.5</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" ref="E5:E15" si="0">C5*D5</f>
-        <v>172.91666666666669</v>
+        <v>215</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ref="F5:F15" si="1">E5/$B$2</f>
-        <v>17.291666666666668</v>
+        <v>21.5</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -945,7 +958,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>20</v>
@@ -991,7 +1004,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>20</v>
@@ -1014,7 +1027,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>20</v>
@@ -1037,7 +1050,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>1</v>
@@ -1089,9 +1102,11 @@
       <c r="E16" s="12"/>
       <c r="F16" s="21">
         <f>SUM(F5:F15)</f>
-        <v>60.904666666666678</v>
-      </c>
-      <c r="G16" s="12"/>
+        <v>65.113</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1099,12 +1114,12 @@
     <hyperlink ref="A7" r:id="rId2" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{65D287F0-F3C5-4BFC-B0EB-927314E9D7BC}"/>
     <hyperlink ref="A9" r:id="rId3" xr:uid="{4719F56A-F53F-4C54-AB15-D0404FA4C1F5}"/>
     <hyperlink ref="A8" r:id="rId4" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{EF83C615-A1D4-4987-BEAB-3BBEDC648166}"/>
-    <hyperlink ref="A10" r:id="rId5" xr:uid="{28E7540A-6659-42EF-91A1-7D780614554D}"/>
+    <hyperlink ref="A10" r:id="rId5" display="M2.5 4mm thread + 6mm standoff screws" xr:uid="{28E7540A-6659-42EF-91A1-7D780614554D}"/>
     <hyperlink ref="A14" r:id="rId6" xr:uid="{2A497A6C-5AAE-4A0E-8C0E-F12EF4CC82A4}"/>
     <hyperlink ref="A15" r:id="rId7" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{F15FB45E-3203-4F2E-9725-87605B6ECD8B}"/>
     <hyperlink ref="A11" r:id="rId8" xr:uid="{0DC7749B-92C3-4CE4-B5B3-BBC86AC775DE}"/>
-    <hyperlink ref="A12" r:id="rId9" xr:uid="{6A8AA35F-6C88-4BD6-B333-FC1A2CEEC938}"/>
-    <hyperlink ref="A13" r:id="rId10" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
+    <hyperlink ref="A12" r:id="rId9" display="KY-016 indicator LED" xr:uid="{6A8AA35F-6C88-4BD6-B333-FC1A2CEEC938}"/>
+    <hyperlink ref="A13" r:id="rId10" display="KY-040 rotary encoders (knobs)" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>

--- a/docs/build_instructions_wood_headphonesOnly.xlsx
+++ b/docs/build_instructions_wood_headphonesOnly.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="347" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C0F8423-9804-4412-93B9-AA6A987F79C9}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5A8602A-364C-412C-9DA8-9883DADB866D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Female-female jumper wires</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Or order 10+ from Ponoko for @$31.01</t>
-  </si>
-  <si>
     <t>16GB micro SD card</t>
   </si>
   <si>
@@ -119,6 +116,57 @@
   </si>
   <si>
     <t>+ tax + shipping</t>
+  </si>
+  <si>
+    <t>Notes &amp; alternatives</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>See instructions above.</t>
+  </si>
+  <si>
+    <t>Also tested with a 2B, 3A+, 3B, 3B+, 4B. Do not use Pi Zero.</t>
+  </si>
+  <si>
+    <t>Or Newark 81AC2845. Or order one for your region/plug.</t>
+  </si>
+  <si>
+    <t>Or Amazon B01L5ULRUA</t>
+  </si>
+  <si>
+    <t>Or Amazon B004JX64FE</t>
+  </si>
+  <si>
+    <t>Or Amazon B06XXV8RTR</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B06XWN9Q99 or other 16GB+ card</t>
+  </si>
+  <si>
+    <t>Or Amazon B077Y149DL or other physically small USB drive</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B00SUIKMJ8 or other cable with right angle bend</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B07KJYR8K1 or search Amazon for KY-016</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B06XQTHDRR</t>
+  </si>
+  <si>
+    <t>Prices will vary. Does not include tax, shipping.</t>
+  </si>
+  <si>
+    <t>Sticky back rubber feet (100 pieces)</t>
+  </si>
+  <si>
+    <t>Only needed for wood &lt; 6mm thick</t>
+  </si>
+  <si>
+    <t>Or laser cut it yourself for ~$22</t>
   </si>
 </sst>
 </file>
@@ -131,21 +179,6 @@
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,29 +202,44 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,69 +283,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,166 +642,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E12D50-D309-4C94-883F-34F0FBB95462}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C2" s="5">
         <v>50.23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
-        <v>4.99</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
-        <v>3.95</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="5">
+        <v>4.99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
-        <v>2.69</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <v>3.95</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
+        <v>2.69</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
         <v>4.32</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="8">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="5">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="5">
         <v>7.99</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
-        <f>SUM(C1:C11)</f>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11">
+        <f>SUM(C2:C12)</f>
         <v>117.39999999999996</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{13786A80-3679-43A9-B8B9-7C75125C477D}"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{F1D856E2-A362-406F-AEE5-44CD93F13CDC}"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://www.newark.com/adafruit/266/female-to-female-jumper-wires/dp/42X1200" xr:uid="{2CE09758-19BE-4D8E-8428-CAB4CD7682C3}"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{B5CB0BD9-1755-4BCA-82AA-B620DFC77645}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.newark.com/raf-electronic-hardware/m2102-2545-al/spacer-standoff-hex-aluminium/dp/27T7975?st=M2.5%20standoff" xr:uid="{F1FA4C82-9DB6-4D44-AEF0-A1FF9DA0D698}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{AE4ABB6F-4B1A-4301-9201-F0BB6B1E4317}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{D0707C02-1360-4150-A0E9-6A8F9228536A}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.amazon.com/gp/product/B00LM0U8I6/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{152A8B79-1A0B-419C-AD64-B530817CE239}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.amazon.com/KY-016-Colors-Sensor-Arduino-Starter/dp/B0786CQD5P/ref=sr_1_1?keywords=KY-016&amp;qid=1572122200&amp;sr=8-1" xr:uid="{ADF5B442-5367-40FF-9B4B-13880D60C0EE}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{13786A80-3679-43A9-B8B9-7C75125C477D}"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{F1D856E2-A362-406F-AEE5-44CD93F13CDC}"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://www.newark.com/adafruit/266/female-to-female-jumper-wires/dp/42X1200" xr:uid="{2CE09758-19BE-4D8E-8428-CAB4CD7682C3}"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{B5CB0BD9-1755-4BCA-82AA-B620DFC77645}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.newark.com/raf-electronic-hardware/m2102-2545-al/spacer-standoff-hex-aluminium/dp/27T7975?st=M2.5%20standoff" xr:uid="{F1FA4C82-9DB6-4D44-AEF0-A1FF9DA0D698}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{AE4ABB6F-4B1A-4301-9201-F0BB6B1E4317}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{D0707C02-1360-4150-A0E9-6A8F9228536A}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.amazon.com/gp/product/B00LM0U8I6/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{152A8B79-1A0B-419C-AD64-B530817CE239}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.amazon.com/KY-016-Colors-Sensor-Arduino-Starter/dp/B0786CQD5P/ref=sr_1_1?keywords=KY-016&amp;qid=1572122200&amp;sr=8-1" xr:uid="{ADF5B442-5367-40FF-9B4B-13880D60C0EE}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -772,50 +856,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35BB53-6D32-4D96-AF53-91579E0632D6}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -834,278 +924,302 @@
       <c r="F4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="4">
         <v>10</v>
       </c>
-      <c r="D5" s="17">
-        <f>55/10+15+1</f>
-        <v>21.5</v>
-      </c>
-      <c r="E5" s="17">
-        <f t="shared" ref="E5:E15" si="0">C5*D5</f>
-        <v>215</v>
-      </c>
-      <c r="F5" s="17">
-        <f t="shared" ref="F5:F15" si="1">E5/$B$2</f>
-        <v>21.5</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="D5" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E16" si="0">C5*D5</f>
+        <v>165</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F16" si="1">E5/$B$2</f>
+        <v>16.5</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="5">
         <v>20</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="5">
         <v>4.99</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>49.900000000000006</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>4.99</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="7">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="5">
         <v>2.69</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>26.9</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>2.69</v>
       </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="7">
         <v>10</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="5">
         <v>0.6</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="5">
         <v>4.99</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>14.97</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>1.4970000000000001</v>
       </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="7">
         <v>10</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="5">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="5">
         <v>1.92</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>0.192</v>
       </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="5">
         <v>2.11</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>8.44</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>0.84399999999999997</v>
       </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="5">
         <v>4.75</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="5">
         <v>5.6</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="21">
-        <f>SUM(F5:F15)</f>
-        <v>65.113</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>29</v>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="11">
+        <f>SUM(F5:F16)</f>
+        <v>60.222000000000008</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1120,8 +1234,9 @@
     <hyperlink ref="A11" r:id="rId8" xr:uid="{0DC7749B-92C3-4CE4-B5B3-BBC86AC775DE}"/>
     <hyperlink ref="A12" r:id="rId9" display="KY-016 indicator LED" xr:uid="{6A8AA35F-6C88-4BD6-B333-FC1A2CEEC938}"/>
     <hyperlink ref="A13" r:id="rId10" display="KY-040 rotary encoders (knobs)" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
+    <hyperlink ref="A16" r:id="rId11" display="Sticky back rubber feet" xr:uid="{B28C07E5-84E2-4983-86EE-C1315391039F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>